--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3B2C5-5042-40FB-B24B-C8E941466685}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD0CF5-0D79-470A-9C67-7A04829427FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DOTACIONES 2016-2017'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="116">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -340,10 +340,58 @@
     <t>VER OBSERVACIONES CORREO ELECTRONICO EN CARPETA</t>
   </si>
   <si>
-    <t>COMPRARON DOTACIÓN CON RECURSOS DISPONIBLES VIGENCIA 2018 $75.231.083</t>
-  </si>
-  <si>
     <t xml:space="preserve">SEGÚN CORREO ELECTRONICO </t>
+  </si>
+  <si>
+    <t>Res 8723 - 11 Julio 2018</t>
+  </si>
+  <si>
+    <t>Putumayo</t>
+  </si>
+  <si>
+    <t>Risaralda</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Centro de Desarrollo Infantil - CDI</t>
+  </si>
+  <si>
+    <t>Recursos disponibles en el contrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hogares Comunitarios de Bienestar Integrales - HCBI </t>
+  </si>
+  <si>
+    <t>Santa Rosa de Cabal</t>
+  </si>
+  <si>
+    <t>Hogar Infantil - HI</t>
+  </si>
+  <si>
+    <t>Marsella</t>
+  </si>
+  <si>
+    <t>Marsella - Santa Rosa de Cabal</t>
+  </si>
+  <si>
+    <t>Desarrollo Infantil en Medio Familiar - DIMF</t>
+  </si>
+  <si>
+    <t>MI CASITA ENCANTADA</t>
+  </si>
+  <si>
+    <t>PEQUEÑO ANGELITO UNO</t>
+  </si>
+  <si>
+    <t>PEQUEÑO ANGELITO DOS</t>
+  </si>
+  <si>
+    <t>Mocoa</t>
+  </si>
+  <si>
+    <t>Villagarzón</t>
   </si>
 </sst>
 </file>
@@ -353,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +461,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -633,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -731,12 +785,6 @@
     <xf numFmtId="6" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,6 +901,27 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Énfasis3" xfId="1" builtinId="39"/>
@@ -1655,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:G37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,14 +1742,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1727,7 +1796,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="42"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -1748,7 +1817,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="42"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -1769,7 +1838,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -1790,28 +1859,28 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
+      <c r="A12" s="50">
         <v>5</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="52">
         <v>490</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>22</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1832,59 +1901,59 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="42"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>7</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>204</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>123</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>54</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>47</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>8</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>65</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>40</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <v>13</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <v>27</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -1905,7 +1974,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="42"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
@@ -1926,7 +1995,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="42"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
@@ -1947,7 +2016,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="42"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -1968,7 +2037,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="42"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
@@ -1989,32 +2058,32 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>14</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>132</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="42">
         <v>8</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="38">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <v>34</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <v>96</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -2035,7 +2104,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
@@ -2056,7 +2125,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="42"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -2077,53 +2146,53 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="42"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+      <c r="A25" s="44">
         <v>18</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="46">
         <v>9</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="46">
         <v>8</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>19</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="37">
         <v>165</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="37">
         <v>68</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="38">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="39">
         <v>82</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="39">
         <v>68</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
@@ -2144,7 +2213,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -2165,7 +2234,7 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -2186,32 +2255,32 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="42"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>23</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>254</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="37">
         <v>38</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="38">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="39">
         <v>61</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="39">
         <v>70</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="59" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2234,82 +2303,80 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="37">
+      <c r="A32" s="35">
         <v>25</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>61</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="37">
         <v>49</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="78" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="76" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="35">
         <v>26</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>58</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="37">
         <v>8</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="38">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="39">
         <v>58</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="39">
         <v>0</v>
       </c>
-      <c r="H33" s="61" t="s">
-        <v>98</v>
-      </c>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>27</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>5</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="37">
         <v>0</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="39">
         <v>5</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="39">
         <v>5</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -2330,57 +2397,57 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="42"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
+      <c r="A36" s="44">
         <v>29</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="46">
         <v>144</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="46">
         <v>2</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="47">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50">
+      <c r="F36" s="48"/>
+      <c r="G36" s="48">
         <v>17</v>
       </c>
-      <c r="H36" s="51" t="s">
-        <v>99</v>
+      <c r="H36" s="49" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>30</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="37">
         <v>133</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="37">
         <v>77</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="38">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="39">
         <v>52</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="39">
         <v>71</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
@@ -2401,7 +2468,7 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="42"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -2422,7 +2489,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="42"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -2443,7 +2510,7 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="42"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
@@ -2484,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
-  <dimension ref="A6:K27"/>
+  <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2509,18 +2576,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,34 +2623,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
+      <c r="A8" s="44">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>100</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="46">
         <v>1</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="58">
         <v>141965000</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -2646,79 +2713,79 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62">
+      <c r="A11" s="60">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="64"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="19">
         <v>165574720</v>
       </c>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>5</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="72" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <v>300</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>1</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="72">
         <v>283945500</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="75" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="73" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65">
+      <c r="A13" s="63">
         <v>6</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="66">
         <v>2578</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70">
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <v>286569752</v>
       </c>
-      <c r="J13" s="71"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2749,7 +2816,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62">
+      <c r="A15" s="60">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2758,7 +2825,7 @@
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="61" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="17">
@@ -2777,216 +2844,488 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>9</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <v>60</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="37">
         <v>1</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="74">
+      <c r="H16" s="75"/>
+      <c r="I16" s="72">
         <v>85179000</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="45" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="43" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65">
+      <c r="A17" s="63">
         <v>10</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="66" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="66">
         <v>1</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="70">
+      <c r="H17" s="74"/>
+      <c r="I17" s="68">
         <v>33500000</v>
       </c>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:11" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="32" t="s">
+      <c r="J17" s="69"/>
+    </row>
+    <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="63">
+        <v>11</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="66">
+        <v>180</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="66">
+        <v>1</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="83">
+        <v>359654300</v>
+      </c>
+      <c r="J18" s="69"/>
+    </row>
+    <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63">
+        <v>12</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="66">
+        <v>125</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="66">
+        <v>1</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63">
+        <v>13</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="66">
+        <v>75</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="66">
+        <v>1</v>
+      </c>
+      <c r="H20" s="74"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63">
+        <v>14</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="37">
+        <v>745</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="37">
+        <v>1</v>
+      </c>
+      <c r="H21" s="80">
+        <v>66262017330</v>
+      </c>
+      <c r="I21" s="79">
+        <v>15045406</v>
+      </c>
+      <c r="J21" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63">
+        <v>15</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="37">
+        <v>270</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="37">
+        <v>1</v>
+      </c>
+      <c r="H22" s="80">
+        <v>66262017335</v>
+      </c>
+      <c r="I22" s="79">
+        <v>1292340</v>
+      </c>
+      <c r="J22" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63">
+        <v>16</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="37">
+        <v>4693</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="37">
+        <v>1</v>
+      </c>
+      <c r="H23" s="80">
+        <v>66262018108</v>
+      </c>
+      <c r="I23" s="79">
+        <v>32000000</v>
+      </c>
+      <c r="J23" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63">
+        <v>17</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="37">
+        <v>200</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="80">
+        <v>66262017267</v>
+      </c>
+      <c r="I24" s="79">
+        <v>7261000</v>
+      </c>
+      <c r="J24" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63">
+        <v>18</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="37">
+        <v>80</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+      <c r="H25" s="80">
+        <v>66262017270</v>
+      </c>
+      <c r="I25" s="79">
+        <v>6666977</v>
+      </c>
+      <c r="J25" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63">
+        <v>19</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1240</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="82">
+        <v>1</v>
+      </c>
+      <c r="H26" s="80">
+        <v>66262017327</v>
+      </c>
+      <c r="I26" s="79">
+        <v>12965360</v>
+      </c>
+      <c r="J26" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="33">
-        <f>SUM(E8:E17)</f>
-        <v>4013</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
-        <f t="shared" ref="G18:I18" si="0">SUM(G8:G17)</f>
-        <v>8</v>
-      </c>
-      <c r="H18" s="33">
-        <f t="shared" si="0"/>
+      <c r="E27" s="33">
+        <f>SUM(E8:E26)</f>
+        <v>11621</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
+        <f>SUM(G8:G26)</f>
+        <v>17</v>
+      </c>
+      <c r="H27" s="33">
+        <f>SUM(H8:H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="34">
-        <f t="shared" si="0"/>
-        <v>1709299447</v>
-      </c>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="I27" s="34">
+        <f>SUM(I8:I26)</f>
+        <v>2144184830</v>
+      </c>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60">
+        <v>20</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="63" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G28" s="17">
         <v>1</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19">
+      <c r="H28" s="18"/>
+      <c r="I28" s="19">
         <v>45000000</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35">
+        <v>21</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="72" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38" t="s">
+      <c r="E29" s="37"/>
+      <c r="F29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G29" s="37">
         <v>1</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="74">
+      <c r="H29" s="75"/>
+      <c r="I29" s="72">
         <v>25000000</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="45" t="s">
+      <c r="J29" s="38"/>
+      <c r="K29" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65">
-        <v>13</v>
-      </c>
-      <c r="B21" s="66" t="s">
+    <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="60">
+        <v>22</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="66" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G30" s="66">
         <v>1</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="70">
+      <c r="H30" s="74"/>
+      <c r="I30" s="68">
         <v>25000000</v>
       </c>
-      <c r="J21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="J30" s="69"/>
+    </row>
+    <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>23</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="12" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19">
+      <c r="H31" s="18"/>
+      <c r="I31" s="19">
         <v>52000000</v>
       </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="21" t="s">
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="22">
-        <f>SUM(G14:G22)</f>
-        <v>16</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24">
-        <f>SUM(I8:I22)</f>
-        <v>3565598894</v>
-      </c>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="28"/>
+      <c r="G32" s="22">
+        <f>SUM(G14:G31)</f>
+        <v>34</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24">
+        <f>SUM(I8:I31)</f>
+        <v>4435369660</v>
+      </c>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:J22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:J31">
     <sortCondition ref="B14"/>
   </sortState>
   <mergeCells count="1">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD0CF5-0D79-470A-9C67-7A04829427FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B43F58-AD0A-4E95-8631-D38BBD2D04D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -901,26 +901,26 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1724,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1742,14 +1742,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -2576,18 +2576,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="74"/>
-      <c r="I18" s="83">
+      <c r="I18" s="81">
         <v>359654300</v>
       </c>
       <c r="J18" s="69"/>
@@ -3002,13 +3002,13 @@
       <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="78">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="77">
         <v>15045406</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="79">
         <v>0</v>
       </c>
     </row>
@@ -3034,13 +3034,13 @@
       <c r="G22" s="37">
         <v>1</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="78">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="77">
         <v>1292340</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="79">
         <v>0</v>
       </c>
     </row>
@@ -3066,13 +3066,13 @@
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="78">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="77">
         <v>32000000</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="79">
         <v>0</v>
       </c>
     </row>
@@ -3098,13 +3098,13 @@
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="78">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="77">
         <v>7261000</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="79">
         <v>0</v>
       </c>
     </row>
@@ -3130,13 +3130,13 @@
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="78">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="77">
         <v>6666977</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="79">
         <v>0</v>
       </c>
     </row>
@@ -3159,16 +3159,16 @@
       <c r="F26" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="80">
         <v>1</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="78">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="79">
+      <c r="I26" s="77">
         <v>12965360</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="79">
         <v>0</v>
       </c>
     </row>

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B43F58-AD0A-4E95-8631-D38BBD2D04D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD76849-2641-4D1D-B0C1-2273CF1745F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>VER OBSERVACIONES CORREO ELECTRONICO EN CARPETA</t>
   </si>
   <si>
-    <t xml:space="preserve">SEGÚN CORREO ELECTRONICO </t>
-  </si>
-  <si>
     <t>Res 8723 - 11 Julio 2018</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>Villagarzón</t>
+  </si>
+  <si>
+    <t>Quede pendiente un pequeno saldo para  ingreso de un contrato de 2018</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,10 +820,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1742,14 +1738,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1862,25 +1858,25 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="A12" s="48">
         <v>5</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <v>490</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="50">
         <v>22</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="51">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -2148,26 +2144,30 @@
       <c r="G24" s="4"/>
       <c r="H24" s="40"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="44">
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
         <v>18</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="37">
         <v>9</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="37">
         <v>8</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39">
+        <v>9</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
@@ -2280,7 +2280,7 @@
       <c r="G30" s="39">
         <v>70</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="57" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="76" t="s">
+      <c r="H32" s="74" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       <c r="G33" s="39">
         <v>0</v>
       </c>
-      <c r="H33" s="59"/>
+      <c r="H33" s="57"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
@@ -2400,29 +2400,29 @@
       <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="44">
+      <c r="A36" s="35">
         <v>29</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="37">
         <v>144</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="37">
         <v>2</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="38">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48">
-        <v>17</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>98</v>
-      </c>
+      <c r="F36" s="39">
+        <v>142</v>
+      </c>
+      <c r="G36" s="39">
+        <v>7</v>
+      </c>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
@@ -2530,11 +2530,11 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>501</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -2576,18 +2576,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
       <c r="C8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="46">
@@ -2644,10 +2644,10 @@
       <c r="G8" s="46">
         <v>1</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="56">
         <v>141965000</v>
       </c>
       <c r="J8" s="47"/>
@@ -2713,20 +2713,20 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60">
+      <c r="A11" s="58">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="61"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="19">
         <v>165574720</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="68" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="37">
@@ -2752,40 +2752,40 @@
       <c r="G12" s="37">
         <v>1</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="70">
         <v>283945500</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63">
+      <c r="A13" s="61">
         <v>6</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="64">
         <v>2578</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66">
         <v>286569752</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2816,7 +2816,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
+      <c r="A15" s="58">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2825,7 +2825,7 @@
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="17">
@@ -2853,7 +2853,7 @@
       <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="68" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="37">
@@ -2865,8 +2865,8 @@
       <c r="G16" s="37">
         <v>1</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="72">
+      <c r="H16" s="73"/>
+      <c r="I16" s="70">
         <v>85179000</v>
       </c>
       <c r="J16" s="38"/>
@@ -2875,300 +2875,300 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63">
+      <c r="A17" s="61">
         <v>10</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="64">
         <v>1</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="68">
+      <c r="H17" s="72"/>
+      <c r="I17" s="66">
         <v>33500000</v>
       </c>
-      <c r="J17" s="69"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <v>11</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="64">
+        <v>180</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="64">
+        <v>1</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="79">
+        <v>359654300</v>
+      </c>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61">
+        <v>12</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="64">
+        <v>125</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61">
+        <v>13</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="64">
+        <v>75</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="64">
+        <v>1</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61">
+        <v>14</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="66">
-        <v>180</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="66">
-        <v>1</v>
-      </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="81">
-        <v>359654300</v>
-      </c>
-      <c r="J18" s="69"/>
-    </row>
-    <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63">
-        <v>12</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="66">
-        <v>125</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="66">
-        <v>1</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63">
-        <v>13</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="66">
-        <v>75</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="66">
-        <v>1</v>
-      </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63">
-        <v>14</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="C21" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="D21" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="E21" s="37">
         <v>745</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="76">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="75">
         <v>15045406</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63">
+      <c r="A22" s="61">
         <v>15</v>
       </c>
       <c r="B22" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="E22" s="37">
         <v>270</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="37">
         <v>1</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="76">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="75">
         <v>1292340</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63">
+      <c r="A23" s="61">
         <v>16</v>
       </c>
       <c r="B23" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="D23" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="37">
         <v>4693</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="78">
+      <c r="H23" s="76">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="75">
         <v>32000000</v>
       </c>
-      <c r="J23" s="79">
+      <c r="J23" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63">
+      <c r="A24" s="61">
         <v>17</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>107</v>
       </c>
       <c r="E24" s="37">
         <v>200</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="76">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="75">
         <v>7261000</v>
       </c>
-      <c r="J24" s="79">
+      <c r="J24" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63">
+      <c r="A25" s="61">
         <v>18</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="37">
         <v>80</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="76">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="75">
         <v>6666977</v>
       </c>
-      <c r="J25" s="79">
+      <c r="J25" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63">
+      <c r="A26" s="61">
         <v>19</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>109</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>110</v>
       </c>
       <c r="E26" s="37">
         <v>1240</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="80">
+        <v>103</v>
+      </c>
+      <c r="G26" s="78">
         <v>1</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="76">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="75">
         <v>12965360</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="77">
         <v>0</v>
       </c>
     </row>
@@ -3199,14 +3199,14 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60">
+      <c r="A28" s="58">
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="59" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="17"/>
@@ -3230,7 +3230,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="68" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="37"/>
@@ -3240,8 +3240,8 @@
       <c r="G29" s="37">
         <v>1</v>
       </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="72">
+      <c r="H29" s="73"/>
+      <c r="I29" s="70">
         <v>25000000</v>
       </c>
       <c r="J29" s="38"/>
@@ -3250,28 +3250,28 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60">
+      <c r="A30" s="58">
         <v>22</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="64" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="64">
         <v>1</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="68">
+      <c r="H30" s="72"/>
+      <c r="I30" s="66">
         <v>25000000</v>
       </c>
-      <c r="J30" s="69"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD76849-2641-4D1D-B0C1-2273CF1745F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED53C5EA-EEE8-4415-91FC-3CD8622B7A7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,12 +512,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -820,22 +814,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -916,6 +894,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1720,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1738,14 +1734,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1858,25 +1854,29 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="35">
         <v>5</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="37">
         <v>490</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="37">
         <v>22</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="38">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="39">
+        <v>434</v>
+      </c>
+      <c r="G12" s="39">
+        <v>56</v>
+      </c>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -2165,7 +2165,7 @@
       <c r="G25" s="39">
         <v>9</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="65" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       <c r="G30" s="39">
         <v>70</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="51" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="74" t="s">
+      <c r="H32" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       <c r="G33" s="39">
         <v>0</v>
       </c>
-      <c r="H33" s="57"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
@@ -2422,7 +2422,7 @@
       <c r="G36" s="39">
         <v>7</v>
       </c>
-      <c r="H36" s="74"/>
+      <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
@@ -2530,11 +2530,11 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>501</v>
+        <v>935</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -2553,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
   <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="J28" sqref="A28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2576,18 +2576,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
       <c r="C8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="48" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="46">
@@ -2644,10 +2644,10 @@
       <c r="G8" s="46">
         <v>1</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="50">
         <v>141965000</v>
       </c>
       <c r="J8" s="47"/>
@@ -2713,20 +2713,20 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58">
+      <c r="A11" s="52">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="59"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="60"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="19">
         <v>165574720</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="62" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="37">
@@ -2752,40 +2752,40 @@
       <c r="G12" s="37">
         <v>1</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="64">
         <v>283945500</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="65" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="58">
         <v>2578</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66">
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60">
         <v>286569752</v>
       </c>
-      <c r="J13" s="67"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2816,7 +2816,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58">
+      <c r="A15" s="52">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2825,7 +2825,7 @@
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="53" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="17">
@@ -2853,7 +2853,7 @@
       <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="37">
@@ -2865,8 +2865,8 @@
       <c r="G16" s="37">
         <v>1</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="70">
+      <c r="H16" s="67"/>
+      <c r="I16" s="64">
         <v>85179000</v>
       </c>
       <c r="J16" s="38"/>
@@ -2875,113 +2875,113 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61">
+      <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="62" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="58">
         <v>1</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="66">
+      <c r="H17" s="66"/>
+      <c r="I17" s="60">
         <v>33500000</v>
       </c>
-      <c r="J17" s="67"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61">
+      <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="58">
         <v>180</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="58">
         <v>1</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="79">
+      <c r="H18" s="66"/>
+      <c r="I18" s="73">
         <v>359654300</v>
       </c>
-      <c r="J18" s="67"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61">
+      <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="58">
         <v>125</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="58">
         <v>1</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61">
+      <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="58">
         <v>75</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="58">
         <v>1</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61">
+      <c r="A21" s="55">
         <v>14</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -3002,18 +3002,18 @@
       <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="70">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="69">
         <v>15045406</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61">
+      <c r="A22" s="55">
         <v>15</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -3034,18 +3034,18 @@
       <c r="G22" s="37">
         <v>1</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="70">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="69">
         <v>1292340</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61">
+      <c r="A23" s="55">
         <v>16</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -3066,18 +3066,18 @@
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="70">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="69">
         <v>32000000</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61">
+      <c r="A24" s="55">
         <v>17</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -3098,18 +3098,18 @@
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="70">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="69">
         <v>7261000</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61">
+      <c r="A25" s="55">
         <v>18</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -3130,18 +3130,18 @@
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="70">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="69">
         <v>6666977</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61">
+      <c r="A26" s="55">
         <v>19</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3159,16 +3159,16 @@
       <c r="F26" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="72">
         <v>1</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="70">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="69">
         <v>12965360</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="71">
         <v>0</v>
       </c>
     </row>
@@ -3199,28 +3199,30 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58">
+      <c r="A28" s="76">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="59" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="72">
         <v>1</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19">
+      <c r="H28" s="79"/>
+      <c r="I28" s="80">
         <v>45000000</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="81">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
@@ -3230,7 +3232,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="37"/>
@@ -3240,8 +3242,8 @@
       <c r="G29" s="37">
         <v>1</v>
       </c>
-      <c r="H29" s="73"/>
-      <c r="I29" s="70">
+      <c r="H29" s="67"/>
+      <c r="I29" s="64">
         <v>25000000</v>
       </c>
       <c r="J29" s="38"/>
@@ -3250,28 +3252,28 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58">
+      <c r="A30" s="52">
         <v>22</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62" t="s">
+      <c r="E30" s="58"/>
+      <c r="F30" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="58">
         <v>1</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="66">
+      <c r="H30" s="66"/>
+      <c r="I30" s="60">
         <v>25000000</v>
       </c>
-      <c r="J30" s="67"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED53C5EA-EEE8-4415-91FC-3CD8622B7A7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138EC81-F240-437D-874A-A46017529D70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOTACIONES 2016-2017" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,27 +802,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -890,29 +869,32 @@
     <xf numFmtId="6" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1717,7 +1699,7 @@
   <dimension ref="A6:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="A12:H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1734,14 +1716,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1917,7 +1899,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="39">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G14" s="39">
         <v>47</v>
@@ -2165,7 +2147,7 @@
       <c r="G25" s="39">
         <v>9</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="58" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2280,7 +2262,7 @@
       <c r="G30" s="39">
         <v>70</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="H30" s="44" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2324,7 +2306,7 @@
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="61" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2351,7 +2333,7 @@
       <c r="G33" s="39">
         <v>0</v>
       </c>
-      <c r="H33" s="51"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
@@ -2422,7 +2404,7 @@
       <c r="G36" s="39">
         <v>7</v>
       </c>
-      <c r="H36" s="68"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
@@ -2530,7 +2512,7 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
@@ -2554,7 +2536,7 @@
   <dimension ref="A6:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="J28" sqref="A28:J28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2576,18 +2558,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2623,34 +2605,36 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="37">
         <v>100</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="37">
         <v>1</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="57">
         <v>141965000</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -2713,20 +2697,20 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="45">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="54"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="19">
         <v>165574720</v>
       </c>
@@ -2740,7 +2724,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="55" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="37">
@@ -2752,40 +2736,40 @@
       <c r="G12" s="37">
         <v>1</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="57">
         <v>283945500</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="58" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
+      <c r="A13" s="48">
         <v>6</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="51">
         <v>2578</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60">
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53">
         <v>286569752</v>
       </c>
-      <c r="J13" s="61"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2816,7 +2800,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="45">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2825,7 +2809,7 @@
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="46" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="17">
@@ -2853,7 +2837,7 @@
       <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="37">
@@ -2865,8 +2849,8 @@
       <c r="G16" s="37">
         <v>1</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="64">
+      <c r="H16" s="60"/>
+      <c r="I16" s="57">
         <v>85179000</v>
       </c>
       <c r="J16" s="38"/>
@@ -2875,113 +2859,113 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55">
+      <c r="A17" s="48">
         <v>10</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="51">
         <v>1</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="60">
+      <c r="H17" s="59"/>
+      <c r="I17" s="53">
         <v>33500000</v>
       </c>
-      <c r="J17" s="61"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55">
+      <c r="A18" s="48">
         <v>11</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="51">
         <v>180</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="51">
         <v>1</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="73">
+      <c r="H18" s="59"/>
+      <c r="I18" s="66">
         <v>359654300</v>
       </c>
-      <c r="J18" s="61"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55">
+      <c r="A19" s="48">
         <v>12</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="51">
         <v>125</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="51">
         <v>1</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55">
+      <c r="A20" s="48">
         <v>13</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="51">
         <v>75</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="51">
         <v>1</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55">
+      <c r="A21" s="48">
         <v>14</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -3002,18 +2986,18 @@
       <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="63">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="62">
         <v>15045406</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55">
+      <c r="A22" s="48">
         <v>15</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -3034,18 +3018,18 @@
       <c r="G22" s="37">
         <v>1</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="63">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="62">
         <v>1292340</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55">
+      <c r="A23" s="48">
         <v>16</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -3066,18 +3050,18 @@
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="63">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="62">
         <v>32000000</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55">
+      <c r="A24" s="48">
         <v>17</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -3098,18 +3082,18 @@
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="63">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="62">
         <v>7261000</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55">
+      <c r="A25" s="48">
         <v>18</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -3130,18 +3114,18 @@
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="63">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="62">
         <v>6666977</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55">
+      <c r="A26" s="48">
         <v>19</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3159,16 +3143,16 @@
       <c r="F26" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="65">
         <v>1</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="63">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="62">
         <v>12965360</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="64">
         <v>0</v>
       </c>
     </row>
@@ -3199,28 +3183,28 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76">
+      <c r="A28" s="67">
         <v>20</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="77" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="65">
         <v>1</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="80">
+      <c r="H28" s="70"/>
+      <c r="I28" s="71">
         <v>45000000</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="72">
         <v>0</v>
       </c>
     </row>
@@ -3232,7 +3216,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="55" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="37"/>
@@ -3242,8 +3226,8 @@
       <c r="G29" s="37">
         <v>1</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="64">
+      <c r="H29" s="60"/>
+      <c r="I29" s="57">
         <v>25000000</v>
       </c>
       <c r="J29" s="38"/>
@@ -3252,28 +3236,28 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52">
+      <c r="A30" s="45">
         <v>22</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="56" t="s">
+      <c r="E30" s="51"/>
+      <c r="F30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="51">
         <v>1</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="60">
+      <c r="H30" s="59"/>
+      <c r="I30" s="53">
         <v>25000000</v>
       </c>
-      <c r="J30" s="61"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138EC81-F240-437D-874A-A46017529D70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BAA4F3-35EC-4994-BE17-B1ACE71E39EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -392,6 +392,25 @@
   </si>
   <si>
     <t>Quede pendiente un pequeno saldo para  ingreso de un contrato de 2018</t>
+  </si>
+  <si>
+    <t>Solicita información adicional, pidén las resoluciones de asignación de dotación</t>
+  </si>
+  <si>
+    <t>Información Parcial</t>
+  </si>
+  <si>
+    <t>Información enviada por correo electronico</t>
+  </si>
+  <si>
+    <t>100% ingresado</t>
+  </si>
+  <si>
+    <t>Existen variables que han dificultado el ingreso de las dotaciones como: 
+1) El aplicativo SEVEN no esta activo todos los dias del mes. 
+2) Revisadas las carpetas se encuentra que la validación financiera muchas veces no es coherente con los valores tanto de las facturas como del Plan de distribucion por lo que hay que devolver nuevamente las carpetas, situacion que a la fecha existen carpetas que no hay sido devueltas por los CZ al almacén con las correciones. 
+3) La directriz de Sede Nacional sobre ingresar unicamente los elementos devolutivos se realizó al finalizar el mes de diciembre, por lo tanto antes se estaba ingresando todos los bienes (consumo, devolutivos).
+4) Falta de tiempo de los Supervisores por las contrataciones a realizar de las diferentes modalidades.</t>
   </si>
 </sst>
 </file>
@@ -681,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -866,9 +885,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,14 +903,48 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1698,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1815,25 +1865,31 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="35">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="37">
         <v>238</v>
       </c>
-      <c r="D11" s="1">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="37">
+        <v>27</v>
+      </c>
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="40"/>
+        <v>211</v>
+      </c>
+      <c r="F11" s="39">
+        <v>201</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
@@ -1934,67 +1990,77 @@
       <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="35">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="37">
         <v>68</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="37">
         <v>68</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="75">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="77">
         <v>22</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="77">
         <v>28</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="78">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="37">
         <v>251</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="37">
         <v>16</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="38">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="40"/>
+      <c r="F18" s="39">
+        <v>140</v>
+      </c>
+      <c r="G18" s="39">
+        <v>2</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -2018,25 +2084,27 @@
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="75">
         <v>13</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="77">
         <v>132</v>
       </c>
-      <c r="D20" s="1">
-        <v>16</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="77">
+        <v>48</v>
+      </c>
+      <c r="E20" s="78">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
@@ -2267,25 +2335,29 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="35">
         <v>24</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="1">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="37">
+        <v>28</v>
+      </c>
+      <c r="D31" s="37">
         <v>20</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="38">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="F31" s="39">
+        <v>8</v>
+      </c>
+      <c r="G31" s="39">
+        <v>28</v>
+      </c>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
@@ -2500,23 +2572,23 @@
       </c>
       <c r="C41" s="8">
         <f>SUM(C8:C40)</f>
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:G41" si="1">SUM(D8:D40)</f>
-        <v>1119</v>
+        <v>1152</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="1"/>
-        <v>3498</v>
+        <v>3464</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>938</v>
+        <v>1287</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -2535,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
   <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2626,7 +2698,7 @@
       <c r="G8" s="37">
         <v>1</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="72" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="57">
@@ -2888,81 +2960,87 @@
       <c r="A18" s="48">
         <v>11</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="84">
         <v>180</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="84">
         <v>1</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="66">
+      <c r="H18" s="85"/>
+      <c r="I18" s="62">
         <v>359654300</v>
       </c>
-      <c r="J18" s="54"/>
+      <c r="J18" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48">
         <v>12</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="84">
         <v>125</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="84">
         <v>1</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48">
         <v>13</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="84">
         <v>75</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="84">
         <v>1</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48">
@@ -3183,28 +3261,28 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <v>20</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="68" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="65"/>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="67" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="65">
         <v>1</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71">
+      <c r="H28" s="69"/>
+      <c r="I28" s="70">
         <v>45000000</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28" s="71">
         <v>0</v>
       </c>
     </row>

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BAA4F3-35EC-4994-BE17-B1ACE71E39EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC642DFB-6404-4D3D-88A3-FAFB5C06130D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,12 +906,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,6 +938,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1766,14 +1766,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1823,25 +1823,29 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="35">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="37">
         <v>357</v>
       </c>
-      <c r="D9" s="1">
-        <v>210</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="37">
+        <v>265</v>
+      </c>
+      <c r="E9" s="38">
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
-        <v>147</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="F9" s="39">
+        <v>18</v>
+      </c>
+      <c r="G9" s="39">
+        <v>15</v>
+      </c>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -2013,25 +2017,25 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="75">
+      <c r="A17" s="73">
         <v>10</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="75">
         <v>22</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="75">
         <v>28</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="76">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80" t="s">
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2084,25 +2088,25 @@
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="75">
+      <c r="A20" s="73">
         <v>13</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="75">
         <v>132</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="75">
         <v>48</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="76">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="81" t="s">
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="79" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2504,25 +2508,29 @@
       <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+      <c r="A38" s="35">
         <v>31</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="37">
         <v>312</v>
       </c>
-      <c r="D38" s="1">
-        <v>54</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="37">
+        <v>81</v>
+      </c>
+      <c r="E38" s="38">
         <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="40"/>
+        <v>231</v>
+      </c>
+      <c r="F38" s="39">
+        <v>20</v>
+      </c>
+      <c r="G38" s="39">
+        <v>52</v>
+      </c>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -2576,19 +2584,19 @@
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:G41" si="1">SUM(D8:D40)</f>
-        <v>1152</v>
+        <v>1234</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="1"/>
-        <v>3464</v>
+        <v>3382</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1325</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -2607,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
   <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="J31" sqref="A31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2630,18 +2638,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2960,29 +2968,29 @@
       <c r="A18" s="48">
         <v>11</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="82">
         <v>180</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="82">
         <v>1</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="62">
         <v>359654300</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="84">
         <v>0</v>
       </c>
     </row>
@@ -2990,27 +2998,27 @@
       <c r="A19" s="48">
         <v>12</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="82">
         <v>125</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="82">
         <v>1</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="62"/>
-      <c r="J19" s="86">
+      <c r="J19" s="84">
         <v>0</v>
       </c>
     </row>
@@ -3018,27 +3026,27 @@
       <c r="A20" s="48">
         <v>13</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="82">
         <v>75</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="82">
         <v>1</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="62"/>
-      <c r="J20" s="86">
+      <c r="J20" s="84">
         <v>0</v>
       </c>
     </row>
@@ -3338,28 +3346,30 @@
       <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="35">
         <v>23</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="65"/>
+      <c r="F31" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="65">
         <v>1</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19">
+      <c r="H31" s="69"/>
+      <c r="I31" s="70">
         <v>52000000</v>
       </c>
-      <c r="J31" s="20"/>
+      <c r="J31" s="71">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F32" s="21" t="s">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC642DFB-6404-4D3D-88A3-FAFB5C06130D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A610CA-A173-49F5-9A9F-93E1177F0898}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2554,25 +2554,25 @@
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="A40" s="35">
         <v>33</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="1">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="37">
         <v>11</v>
       </c>
-      <c r="E40" s="3">
+      <c r="D40" s="37">
+        <v>11</v>
+      </c>
+      <c r="E40" s="38">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C41" s="8">
         <f>SUM(C8:C40)</f>
-        <v>4616</v>
+        <v>4608</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:G41" si="1">SUM(D8:D40)</f>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" si="1"/>
-        <v>3382</v>
+        <v>3374</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A610CA-A173-49F5-9A9F-93E1177F0898}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BCA1CC-6E5A-464D-A725-B1B7D8E1CA5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOTACIONES 2016-2017" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,9 +739,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -921,9 +918,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -945,6 +939,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1748,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1766,14 +1763,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1820,32 +1817,32 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>357</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>265</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
         <v>92</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>18</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>15</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -1866,59 +1863,59 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="34">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>238</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>27</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>201</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>0</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="42" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>490</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>22</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>434</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>56</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1939,130 +1936,134 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>7</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>204</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>123</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>57</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>47</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="40" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>65</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>40</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>13</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>27</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>68</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>68</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="43" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73">
+      <c r="A17" s="34">
         <v>10</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="36">
         <v>22</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="36">
         <v>28</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="37">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78" t="s">
+      <c r="F17" s="38">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="57" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="34">
         <v>11</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>251</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>16</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>140</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>2</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="57" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2085,55 +2086,55 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="73">
+      <c r="A20" s="72">
         <v>13</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="74">
         <v>132</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="74">
         <v>48</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="75">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="79" t="s">
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="34">
         <v>14</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>132</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>8</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>34</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>96</v>
       </c>
-      <c r="H21" s="43"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -2154,7 +2155,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
@@ -2175,7 +2176,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="40"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -2196,57 +2197,57 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="34">
         <v>18</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>9</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>8</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38">
         <v>9</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="57" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="34">
         <v>19</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>165</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>68</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="38">
         <v>82</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <v>68</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
@@ -2267,7 +2268,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -2288,7 +2289,7 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="40"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -2309,132 +2310,132 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="40"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="A30" s="34">
         <v>23</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>254</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>38</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="38">
         <v>61</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="38">
         <v>70</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>24</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>28</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>20</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>8</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <v>28</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="34">
         <v>25</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>61</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>49</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="61" t="s">
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="60" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="34">
         <v>26</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>58</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>8</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>58</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <v>0</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="34">
         <v>27</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>5</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>5</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <v>5</v>
       </c>
-      <c r="H34" s="40"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -2455,82 +2456,82 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="40"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
+      <c r="A36" s="34">
         <v>29</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>144</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="36">
         <v>2</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="38">
         <v>142</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="38">
         <v>7</v>
       </c>
-      <c r="H36" s="61"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="35">
+      <c r="A37" s="34">
         <v>30</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>133</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>77</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="38">
         <v>52</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <v>71</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
+      <c r="A38" s="34">
         <v>31</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>312</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <v>81</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="38">
         <v>20</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="38">
         <v>52</v>
       </c>
-      <c r="H38" s="43"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -2551,28 +2552,28 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="40"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="34">
         <v>33</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>11</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>11</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="43"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
@@ -2615,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
   <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="J31" sqref="A31:J31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="J10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2626,7 @@
     <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" hidden="1" customWidth="1"/>
@@ -2638,19 +2639,19 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -2685,34 +2686,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>100</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="56">
         <v>141965000</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2747,109 +2748,111 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="36">
         <v>95</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="36">
         <v>1</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="56">
         <v>22319775</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="19">
+      <c r="G11" s="16"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="18">
         <v>165574720</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>300</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>1</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <v>283945500</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="58" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="57" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>6</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <v>2578</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53">
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52">
         <v>286569752</v>
       </c>
-      <c r="J13" s="54"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2871,7 +2874,7 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="9">
@@ -2880,523 +2883,523 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>8</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>300</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19">
+      <c r="H15" s="17"/>
+      <c r="I15" s="18">
         <v>5460000</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>60</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="57">
+      <c r="H16" s="59"/>
+      <c r="I16" s="56">
         <v>85179000</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="43" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>10</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <v>1</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="53">
+      <c r="H17" s="58"/>
+      <c r="I17" s="52">
         <v>33500000</v>
       </c>
-      <c r="J17" s="54"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>11</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="80">
         <v>180</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="80">
         <v>1</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="62">
+      <c r="H18" s="81"/>
+      <c r="I18" s="61">
         <v>359654300</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>12</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="80">
         <v>125</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="80">
         <v>1</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="84">
+      <c r="H19" s="81"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>13</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="80">
         <v>75</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="80">
         <v>1</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="84">
+      <c r="H20" s="81"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>14</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>745</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="62">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="61">
         <v>15045406</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>15</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>270</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>1</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="62">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="61">
         <v>1292340</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>16</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>4693</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>1</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="62">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="61">
         <v>32000000</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>17</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>200</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="62">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="61">
         <v>7261000</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>18</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>80</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>1</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="62">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="61">
         <v>6666977</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>19</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>1240</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="64">
         <v>1</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="62">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="61">
         <v>12965360</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="63">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:11" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f>SUM(E8:E26)</f>
         <v>11621</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32">
         <f>SUM(G8:G26)</f>
         <v>17</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <f>SUM(H8:H17)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <f>SUM(I8:I26)</f>
         <v>2144184830</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66">
+      <c r="A28" s="65">
         <v>20</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="67" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="64">
         <v>1</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70">
+      <c r="H28" s="68"/>
+      <c r="I28" s="69">
         <v>45000000</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="34">
         <v>21</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="55" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>1</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="57">
+      <c r="H29" s="59"/>
+      <c r="I29" s="56">
         <v>25000000</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="43" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45">
+      <c r="A30" s="44">
         <v>22</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="49" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="50">
         <v>1</v>
       </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="53">
+      <c r="H30" s="58"/>
+      <c r="I30" s="52">
         <v>25000000</v>
       </c>
-      <c r="J30" s="54"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>23</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="55" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="67" t="s">
+      <c r="E31" s="64"/>
+      <c r="F31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="64">
         <v>1</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70">
+      <c r="H31" s="68"/>
+      <c r="I31" s="69">
         <v>52000000</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <f>SUM(G14:G31)</f>
         <v>34</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24">
+      <c r="H32" s="22"/>
+      <c r="I32" s="23">
         <f>SUM(I8:I31)</f>
         <v>4435369660</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="35" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="28"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:J31">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BCA1CC-6E5A-464D-A725-B1B7D8E1CA5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE189689-C804-49CC-9608-4E9EE15B8DB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOTACIONES 2016-2017" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="122">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -411,6 +411,9 @@
 2) Revisadas las carpetas se encuentra que la validación financiera muchas veces no es coherente con los valores tanto de las facturas como del Plan de distribucion por lo que hay que devolver nuevamente las carpetas, situacion que a la fecha existen carpetas que no hay sido devueltas por los CZ al almacén con las correciones. 
 3) La directriz de Sede Nacional sobre ingresar unicamente los elementos devolutivos se realizó al finalizar el mes de diciembre, por lo tanto antes se estaba ingresando todos los bienes (consumo, devolutivos).
 4) Falta de tiempo de los Supervisores por las contrataciones a realizar de las diferentes modalidades.</t>
+  </si>
+  <si>
+    <t>Se solicita reportar en el formato</t>
   </si>
 </sst>
 </file>
@@ -934,14 +937,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1745,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,14 +1766,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -2250,25 +2253,27 @@
       <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="72">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="74">
         <v>122</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="74">
         <v>23</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="75">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="39"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -2616,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
   <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
       <selection activeCell="J10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
@@ -2639,18 +2644,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2769,7 +2774,7 @@
       <c r="G10" s="36">
         <v>1</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="83" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="56">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE189689-C804-49CC-9608-4E9EE15B8DB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745EDAC-FB84-4FF9-A445-CC31FF4C98D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="122">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -703,7 +704,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1748,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1766,14 +1764,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1820,32 +1818,32 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>357</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>265</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
         <v>92</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>18</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>15</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -1866,59 +1864,59 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>4</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>238</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>27</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>201</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>0</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>490</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>22</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>434</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>56</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1939,134 +1937,134 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>204</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>123</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>57</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>47</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>65</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>40</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>13</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>27</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>9</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>68</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>68</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="42" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>10</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>22</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <v>28</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>0</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>11</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>251</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <v>16</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>140</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>2</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="56" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2089,55 +2087,55 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="72">
+      <c r="A20" s="71">
         <v>13</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="73">
         <v>132</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="73">
         <v>48</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="74">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>14</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>132</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="40">
         <v>8</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>34</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>96</v>
       </c>
-      <c r="H21" s="42"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -2158,7 +2156,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
@@ -2179,7 +2177,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -2200,78 +2198,78 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>18</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>9</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>8</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37">
         <v>9</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="56" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>19</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>165</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <v>68</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>82</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>68</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="72">
+      <c r="A27" s="71">
         <v>20</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="73">
         <v>122</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="73">
         <v>23</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="74">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77" t="s">
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2294,7 +2292,7 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -2315,132 +2313,132 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>23</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>254</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="35">
         <v>38</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>61</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <v>70</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="42" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>24</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>28</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="35">
         <v>20</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>8</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>28</v>
       </c>
-      <c r="H31" s="42"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>25</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>61</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="35">
         <v>49</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="60" t="s">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="59" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>26</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>58</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <v>8</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>58</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <v>0</v>
       </c>
-      <c r="H33" s="43"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>27</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>5</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <v>0</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>5</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>5</v>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -2461,82 +2459,82 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>29</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="35">
         <v>144</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <v>2</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>142</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>7</v>
       </c>
-      <c r="H36" s="60"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>30</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="35">
         <v>133</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <v>77</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>52</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>71</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>31</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="35">
         <v>312</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <v>81</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>20</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>52</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -2557,28 +2555,28 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>33</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>11</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="35">
         <v>11</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="42"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
@@ -2621,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A255B5C-5BC9-4C82-B8C0-1A12E32C9B3A}">
   <dimension ref="A6:K36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="J10" sqref="A10:J10"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2631,7 +2629,7 @@
     <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" hidden="1" customWidth="1"/>
@@ -2644,19 +2642,19 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -2691,34 +2689,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>100</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>1</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="55">
         <v>141965000</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2753,111 +2751,111 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>95</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="55">
         <v>22319775</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
+      <c r="A11" s="43">
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="16"/>
       <c r="F11" s="15" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="18">
+      <c r="H11" s="45"/>
+      <c r="I11" s="17">
         <v>165574720</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="54" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>300</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>1</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="55">
         <v>283945500</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="57" t="s">
+      <c r="J12" s="36"/>
+      <c r="K12" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="A13" s="46">
         <v>6</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <v>2578</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52">
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51">
         <v>286569752</v>
       </c>
-      <c r="J13" s="53"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2888,523 +2886,527 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44">
+      <c r="A15" s="64">
         <v>8</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="63">
         <v>300</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="63">
         <v>1</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68">
         <v>5460000</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>9</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>60</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>1</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="56">
+      <c r="H16" s="58"/>
+      <c r="I16" s="55">
         <v>85179000</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="42" t="s">
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
+      <c r="A17" s="46">
         <v>10</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="48" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="49">
         <v>1</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="52">
+      <c r="H17" s="57"/>
+      <c r="I17" s="51">
         <v>33500000</v>
       </c>
-      <c r="J17" s="53"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
+      <c r="A18" s="46">
         <v>11</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <v>180</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="79">
         <v>1</v>
       </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="61">
+      <c r="H18" s="80"/>
+      <c r="I18" s="60">
         <v>359654300</v>
       </c>
-      <c r="J18" s="82">
+      <c r="J18" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>12</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="79">
         <v>125</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="79">
         <v>1</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="82">
+      <c r="H19" s="80"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47">
+      <c r="A20" s="46">
         <v>13</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="79">
         <v>75</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="79">
         <v>1</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="82">
+      <c r="H20" s="80"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
+      <c r="A21" s="46">
         <v>14</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <v>745</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>1</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="61">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="60">
         <v>15045406</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
+      <c r="A22" s="46">
         <v>15</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>270</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>1</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="61">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="60">
         <v>1292340</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47">
+      <c r="A23" s="46">
         <v>16</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>4693</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>1</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="61">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="60">
         <v>32000000</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47">
+      <c r="A24" s="46">
         <v>17</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>200</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="61">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="60">
         <v>7261000</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47">
+      <c r="A25" s="46">
         <v>18</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>80</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>1</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="61">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="60">
         <v>6666977</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
+      <c r="A26" s="46">
         <v>19</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>1240</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="63">
         <v>1</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="61">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="60">
         <v>12965360</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:11" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <f>SUM(E8:E26)</f>
         <v>11621</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32">
+      <c r="F27" s="31"/>
+      <c r="G27" s="31">
         <f>SUM(G8:G26)</f>
         <v>17</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <f>SUM(H8:H17)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f>SUM(I8:I26)</f>
         <v>2144184830</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65">
+      <c r="A28" s="64">
         <v>20</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="66" t="s">
+      <c r="E28" s="63"/>
+      <c r="F28" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="63">
         <v>1</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69">
+      <c r="H28" s="67"/>
+      <c r="I28" s="68">
         <v>45000000</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>21</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <v>1</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="56">
+      <c r="H29" s="58"/>
+      <c r="I29" s="55">
         <v>25000000</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="42" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44">
+      <c r="A30" s="43">
         <v>22</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="48" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="49">
         <v>1</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="52">
+      <c r="H30" s="57"/>
+      <c r="I30" s="51">
         <v>25000000</v>
       </c>
-      <c r="J30" s="53"/>
+      <c r="J30" s="52"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>23</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="54" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="66" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="63">
         <v>1</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69">
+      <c r="H31" s="67"/>
+      <c r="I31" s="68">
         <v>52000000</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <f>SUM(G14:G31)</f>
         <v>34</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23">
+      <c r="H32" s="21"/>
+      <c r="I32" s="22">
         <f>SUM(I8:I31)</f>
         <v>4435369660</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="35" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:J31">

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745EDAC-FB84-4FF9-A445-CC31FF4C98D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377FD27-6F97-477A-A8C2-BFB55A10515D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="122">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -1747,7 +1746,7 @@
   <dimension ref="A6:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2295,25 +2294,29 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="33">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="35">
         <v>101</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="35">
         <v>36</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="36">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="38"/>
+      <c r="F29" s="37">
+        <v>54</v>
+      </c>
+      <c r="G29" s="37">
+        <v>47</v>
+      </c>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
@@ -2596,11 +2599,11 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>1325</v>
+        <v>1379</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="H41" s="8"/>
     </row>

--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Formato_Informe de Ingreso Contratos Aporte Cierre 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377FD27-6F97-477A-A8C2-BFB55A10515D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3571C0-EB83-4D5D-B210-6F7C4D9F7DDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1746,7 +1746,7 @@
   <dimension ref="A6:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2158,25 +2158,29 @@
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="33">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="35">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="35">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="38"/>
+      <c r="F23" s="37">
+        <v>1</v>
+      </c>
+      <c r="G23" s="37">
+        <v>5</v>
+      </c>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -2599,11 +2603,11 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H41" s="8"/>
     </row>
